--- a/uploads/scholarship_template.xlsx
+++ b/uploads/scholarship_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CED36FA-AB98-41D0-9C57-9A3328ACDD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7437FFC-E844-4D07-B496-16927C7B586B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,11 +35,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>領取日期</t>
+    <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>備註</t>
+    <t>領取金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>領取日期(YYYY-MM-DD)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -365,15 +370,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,11 +390,17 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
